--- a/biology/Zoologie/Afrolychas_braueri/Afrolychas_braueri.xlsx
+++ b/biology/Zoologie/Afrolychas_braueri/Afrolychas_braueri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrolychas braueri est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Seychelles[1]. Elle se rencontre sur Praslin, Mahé et Silhouette.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Seychelles. Elle se rencontre sur Praslin, Mahé et Silhouette.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Kovařík en 1997 mesure 25,0 mm et la femelle 33,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Kovařík en 1997 mesure 25,0 mm et la femelle 33,7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Archisometrus braueri par Kraepelin en 1896. Elle est placée dans le genre Lychas par Pocock en 1900[3] puis dans le genre Afrolychas par Kovařík en 2019[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Archisometrus braueri par Kraepelin en 1896. Elle est placée dans le genre Lychas par Pocock en 1900 puis dans le genre Afrolychas par Kovařík en 2019.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'August Brauer[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'August Brauer.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kraepelin, 1896 : « Neue und weniger bekannte Skorpione. Mittheilungen aus dem Naturhistorischen Museum, Beiheft zum Jahrb. » Beiheft zum Jahrbuch der Hamburgischen wissenschaftlichen Anstalten, vol. 13, no 8, p. 119-146 (texte intégral).</t>
         </is>
